--- a/target/test-classes/data.xlsx
+++ b/target/test-classes/data.xlsx
@@ -66,10 +66,10 @@
     <t>an10@gmail.com</t>
   </si>
   <si>
-    <t>neo9@gmail.com</t>
-  </si>
-  <si>
-    <t>max5@gmail.com</t>
+    <t>max6@gmail.com</t>
+  </si>
+  <si>
+    <t>neo10@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -553,7 +553,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>3</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>3</v>
